--- a/Polaris/PlusMatlabUtils-master/MatlabOpenIGTLinkInterface/data/29-Jul-2019/thumbTests.xlsx
+++ b/Polaris/PlusMatlabUtils-master/MatlabOpenIGTLinkInterface/data/29-Jul-2019/thumbTests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Google Drive\ROBOTICS (MSc)\Dissertation\DissertationSoftware\Software\Polaris\PlusMatlabUtils-master\MatlabOpenIGTLinkInterface\data\29-Jul-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36811FBE-BED1-41E3-9388-26A7550E02FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B130C8C3-6297-4A10-8193-964B377A7C1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="6" xr2:uid="{021DC2F7-D4FC-48D1-89BB-D69990D55395}"/>
+    <workbookView xWindow="12750" yWindow="-16200" windowWidth="20730" windowHeight="11310" activeTab="6" xr2:uid="{021DC2F7-D4FC-48D1-89BB-D69990D55395}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
   <si>
     <t>folder</t>
   </si>
@@ -110,6 +110,30 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>indep</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>[2 2 2]</t>
+  </si>
+  <si>
+    <t>[3 3 3]</t>
+  </si>
+  <si>
+    <t>[5 5 5]</t>
+  </si>
+  <si>
+    <t>[7 7 7]</t>
+  </si>
+  <si>
+    <t>[10 10 10]</t>
   </si>
 </sst>
 </file>
@@ -215,12 +239,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20827,15 +20852,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F58CD3B-AEAA-4362-A3F7-752E92B747F3}">
-  <dimension ref="B2:H7"/>
+  <dimension ref="B2:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -20854,8 +20879,17 @@
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -20883,8 +20917,17 @@
         <f>AVERAGE(thumb__2[err_time_series_test_t])</f>
         <v>25.281552000000016</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -20912,8 +20955,17 @@
         <f>AVERAGE(thumb__3[err_time_series_test_t])</f>
         <v>23.943366399999992</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -20941,8 +20993,17 @@
         <f>AVERAGE(thumb__6[err_time_series_test_t])</f>
         <v>26.664488800000001</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -20970,8 +21031,17 @@
         <f>AVERAGE(thumb__5[err_time_series_test_t])</f>
         <v>35.676147200000003</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -20998,6 +21068,41 @@
       <c r="H7" s="4">
         <f>AVERAGE(thumb__7[err_time_series_test_t])</f>
         <v>48.236253600000005</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>MIN(C3:C7)</f>
+        <v>34.866304000000007</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:H8" si="0">MIN(D3:D7)</f>
+        <v>33.698336000000012</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>17.354400000000005</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>91.940081599999985</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>88.979616800000002</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>23.943366399999992</v>
       </c>
     </row>
   </sheetData>
